--- a/heta/table1.xlsx
+++ b/heta/table1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="3" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="export json" sheetId="4" r:id="rId3"/>
     <sheet name="export julia" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="4152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="4153">
   <si>
     <t>on</t>
   </si>
@@ -12473,12 +12473,15 @@
   </si>
   <si>
     <t>delay in math</t>
+  </si>
+  <si>
+    <t>spaceFilter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12570,7 +12573,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -12586,9 +12589,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12626,9 +12629,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12663,7 +12666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12698,7 +12701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21996,7 +21999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J829"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -36304,7 +36307,7 @@
   <dimension ref="A1:J829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36324,7 +36327,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4152</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -56166,13 +56169,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E829"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -56184,7 +56188,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4152</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>

--- a/heta/table1.xlsx
+++ b/heta/table1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="4152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="4153">
   <si>
     <t>on</t>
   </si>
@@ -12473,6 +12473,9 @@
   </si>
   <si>
     <t>delay in math</t>
+  </si>
+  <si>
+    <t>spaceFilter</t>
   </si>
 </sst>
 </file>
@@ -12874,8 +12877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I829"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A590" workbookViewId="0">
+      <selection activeCell="C600" sqref="C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21996,8 +21999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J829"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
+      <selection activeCell="D824" sqref="D824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31954,20 +31957,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A580" s="7">
-        <v>1</v>
-      </c>
-      <c r="B580" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C580" s="7" t="s">
+    <row r="580" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="8">
+        <v>0</v>
+      </c>
+      <c r="B580" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C580" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D580" s="7" t="s">
+      <c r="D580" s="8" t="s">
         <v>3898</v>
       </c>
-      <c r="E580" s="7" t="s">
+      <c r="E580" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -33852,23 +33855,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="689" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A689" s="8">
-        <v>1</v>
-      </c>
-      <c r="B689" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C689" s="8" t="s">
+    <row r="689" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="7">
+        <v>1</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C689" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="D689" s="8" t="s">
+      <c r="D689" s="7" t="s">
         <v>4007</v>
       </c>
-      <c r="E689" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F689" s="8" t="s">
+      <c r="E689" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F689" s="7" t="s">
         <v>4148</v>
       </c>
     </row>
@@ -36304,7 +36307,7 @@
   <dimension ref="A1:J829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36324,7 +36327,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4152</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -56167,7 +56170,7 @@
   <dimension ref="A1:E829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56184,7 +56187,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4152</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
